--- a/raw/Unit_Freight_Cost-2023-08-email - Copy.xlsx
+++ b/raw/Unit_Freight_Cost-2023-08-email - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\shipping\shipping\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D6D29-05F7-4AED-8D26-EE0A45D747F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE665E3B-D350-4E52-A688-28D3D313DFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="473" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1735,14 +1735,23 @@
     <xf numFmtId="43" fontId="9" fillId="0" borderId="43" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="15" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="15" fillId="8" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="34" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -2207,123 +2216,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="195"/>
-      <c r="BD1" s="195"/>
-      <c r="BE1" s="195"/>
-      <c r="BF1" s="195"/>
-      <c r="BG1" s="195"/>
-      <c r="BH1" s="195"/>
-      <c r="BI1" s="195"/>
-      <c r="BJ1" s="195"/>
-      <c r="BK1" s="195"/>
-      <c r="BL1" s="195"/>
-      <c r="BM1" s="195"/>
-      <c r="BN1" s="195"/>
-      <c r="BO1" s="195"/>
-      <c r="BP1" s="195"/>
-      <c r="BQ1" s="195"/>
-      <c r="BR1" s="195"/>
-      <c r="BS1" s="195"/>
-      <c r="BT1" s="195"/>
-      <c r="BU1" s="195"/>
-      <c r="BV1" s="195"/>
-      <c r="BW1" s="195"/>
-      <c r="BX1" s="195"/>
-      <c r="BY1" s="195"/>
-      <c r="BZ1" s="195"/>
-      <c r="CA1" s="195"/>
-      <c r="CB1" s="195"/>
-      <c r="CC1" s="195"/>
-      <c r="CD1" s="195"/>
-      <c r="CE1" s="195"/>
-      <c r="CF1" s="195"/>
-      <c r="CG1" s="195"/>
-      <c r="CH1" s="195"/>
-      <c r="CI1" s="195"/>
-      <c r="CJ1" s="195"/>
-      <c r="CK1" s="195"/>
-      <c r="CL1" s="195"/>
-      <c r="CM1" s="195"/>
-      <c r="CN1" s="195"/>
-      <c r="CO1" s="195"/>
-      <c r="CP1" s="195"/>
-      <c r="CQ1" s="195"/>
-      <c r="CR1" s="195"/>
-      <c r="CS1" s="195"/>
-      <c r="CT1" s="195"/>
-      <c r="CU1" s="195"/>
-      <c r="CV1" s="195"/>
-      <c r="CW1" s="195"/>
-      <c r="CX1" s="195"/>
-      <c r="CY1" s="195"/>
-      <c r="CZ1" s="195"/>
-      <c r="DA1" s="195"/>
-      <c r="DB1" s="195"/>
-      <c r="DC1" s="195"/>
-      <c r="DD1" s="195"/>
-      <c r="DE1" s="195"/>
-      <c r="DF1" s="195"/>
-      <c r="DG1" s="195"/>
-      <c r="DH1" s="195"/>
-      <c r="DI1" s="195"/>
-      <c r="DJ1" s="195"/>
-      <c r="DK1" s="195"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="197"/>
+      <c r="BO1" s="197"/>
+      <c r="BP1" s="197"/>
+      <c r="BQ1" s="197"/>
+      <c r="BR1" s="197"/>
+      <c r="BS1" s="197"/>
+      <c r="BT1" s="197"/>
+      <c r="BU1" s="197"/>
+      <c r="BV1" s="197"/>
+      <c r="BW1" s="197"/>
+      <c r="BX1" s="197"/>
+      <c r="BY1" s="197"/>
+      <c r="BZ1" s="197"/>
+      <c r="CA1" s="197"/>
+      <c r="CB1" s="197"/>
+      <c r="CC1" s="197"/>
+      <c r="CD1" s="197"/>
+      <c r="CE1" s="197"/>
+      <c r="CF1" s="197"/>
+      <c r="CG1" s="197"/>
+      <c r="CH1" s="197"/>
+      <c r="CI1" s="197"/>
+      <c r="CJ1" s="197"/>
+      <c r="CK1" s="197"/>
+      <c r="CL1" s="197"/>
+      <c r="CM1" s="197"/>
+      <c r="CN1" s="197"/>
+      <c r="CO1" s="197"/>
+      <c r="CP1" s="197"/>
+      <c r="CQ1" s="197"/>
+      <c r="CR1" s="197"/>
+      <c r="CS1" s="197"/>
+      <c r="CT1" s="197"/>
+      <c r="CU1" s="197"/>
+      <c r="CV1" s="197"/>
+      <c r="CW1" s="197"/>
+      <c r="CX1" s="197"/>
+      <c r="CY1" s="197"/>
+      <c r="CZ1" s="197"/>
+      <c r="DA1" s="197"/>
+      <c r="DB1" s="197"/>
+      <c r="DC1" s="197"/>
+      <c r="DD1" s="197"/>
+      <c r="DE1" s="197"/>
+      <c r="DF1" s="197"/>
+      <c r="DG1" s="197"/>
+      <c r="DH1" s="197"/>
+      <c r="DI1" s="197"/>
+      <c r="DJ1" s="197"/>
+      <c r="DK1" s="197"/>
       <c r="DL1" s="3"/>
     </row>
     <row r="2" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -26049,123 +26058,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:124" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="197" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="195"/>
-      <c r="I1" s="195"/>
-      <c r="J1" s="195"/>
-      <c r="K1" s="195"/>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="195"/>
-      <c r="R1" s="195"/>
-      <c r="S1" s="195"/>
-      <c r="T1" s="195"/>
-      <c r="U1" s="195"/>
-      <c r="V1" s="195"/>
-      <c r="W1" s="195"/>
-      <c r="X1" s="195"/>
-      <c r="Y1" s="195"/>
-      <c r="Z1" s="195"/>
-      <c r="AA1" s="195"/>
-      <c r="AB1" s="195"/>
-      <c r="AC1" s="195"/>
-      <c r="AD1" s="195"/>
-      <c r="AE1" s="195"/>
-      <c r="AF1" s="195"/>
-      <c r="AG1" s="195"/>
-      <c r="AH1" s="195"/>
-      <c r="AI1" s="195"/>
-      <c r="AJ1" s="195"/>
-      <c r="AK1" s="195"/>
-      <c r="AL1" s="195"/>
-      <c r="AM1" s="195"/>
-      <c r="AN1" s="195"/>
-      <c r="AO1" s="195"/>
-      <c r="AP1" s="195"/>
-      <c r="AQ1" s="195"/>
-      <c r="AR1" s="195"/>
-      <c r="AS1" s="195"/>
-      <c r="AT1" s="195"/>
-      <c r="AU1" s="195"/>
-      <c r="AV1" s="195"/>
-      <c r="AW1" s="195"/>
-      <c r="AX1" s="195"/>
-      <c r="AY1" s="195"/>
-      <c r="AZ1" s="195"/>
-      <c r="BA1" s="195"/>
-      <c r="BB1" s="195"/>
-      <c r="BC1" s="195"/>
-      <c r="BD1" s="195"/>
-      <c r="BE1" s="195"/>
-      <c r="BF1" s="195"/>
-      <c r="BG1" s="195"/>
-      <c r="BH1" s="195"/>
-      <c r="BI1" s="195"/>
-      <c r="BJ1" s="195"/>
-      <c r="BK1" s="195"/>
-      <c r="BL1" s="195"/>
-      <c r="BM1" s="195"/>
-      <c r="BN1" s="195"/>
-      <c r="BO1" s="195"/>
-      <c r="BP1" s="195"/>
-      <c r="BQ1" s="195"/>
-      <c r="BR1" s="195"/>
-      <c r="BS1" s="195"/>
-      <c r="BT1" s="195"/>
-      <c r="BU1" s="195"/>
-      <c r="BV1" s="195"/>
-      <c r="BW1" s="195"/>
-      <c r="BX1" s="195"/>
-      <c r="BY1" s="195"/>
-      <c r="BZ1" s="195"/>
-      <c r="CA1" s="195"/>
-      <c r="CB1" s="195"/>
-      <c r="CC1" s="195"/>
-      <c r="CD1" s="195"/>
-      <c r="CE1" s="195"/>
-      <c r="CF1" s="195"/>
-      <c r="CG1" s="195"/>
-      <c r="CH1" s="195"/>
-      <c r="CI1" s="195"/>
-      <c r="CJ1" s="195"/>
-      <c r="CK1" s="195"/>
-      <c r="CL1" s="195"/>
-      <c r="CM1" s="195"/>
-      <c r="CN1" s="195"/>
-      <c r="CO1" s="195"/>
-      <c r="CP1" s="195"/>
-      <c r="CQ1" s="195"/>
-      <c r="CR1" s="195"/>
-      <c r="CS1" s="195"/>
-      <c r="CT1" s="195"/>
-      <c r="CU1" s="195"/>
-      <c r="CV1" s="195"/>
-      <c r="CW1" s="195"/>
-      <c r="CX1" s="195"/>
-      <c r="CY1" s="195"/>
-      <c r="CZ1" s="195"/>
-      <c r="DA1" s="195"/>
-      <c r="DB1" s="195"/>
-      <c r="DC1" s="195"/>
-      <c r="DD1" s="195"/>
-      <c r="DE1" s="195"/>
-      <c r="DF1" s="195"/>
-      <c r="DG1" s="195"/>
-      <c r="DH1" s="195"/>
-      <c r="DI1" s="195"/>
-      <c r="DJ1" s="195"/>
-      <c r="DK1" s="195"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
+      <c r="F1" s="197"/>
+      <c r="G1" s="197"/>
+      <c r="H1" s="197"/>
+      <c r="I1" s="197"/>
+      <c r="J1" s="197"/>
+      <c r="K1" s="197"/>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="197"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="197"/>
+      <c r="T1" s="197"/>
+      <c r="U1" s="197"/>
+      <c r="V1" s="197"/>
+      <c r="W1" s="197"/>
+      <c r="X1" s="197"/>
+      <c r="Y1" s="197"/>
+      <c r="Z1" s="197"/>
+      <c r="AA1" s="197"/>
+      <c r="AB1" s="197"/>
+      <c r="AC1" s="197"/>
+      <c r="AD1" s="197"/>
+      <c r="AE1" s="197"/>
+      <c r="AF1" s="197"/>
+      <c r="AG1" s="197"/>
+      <c r="AH1" s="197"/>
+      <c r="AI1" s="197"/>
+      <c r="AJ1" s="197"/>
+      <c r="AK1" s="197"/>
+      <c r="AL1" s="197"/>
+      <c r="AM1" s="197"/>
+      <c r="AN1" s="197"/>
+      <c r="AO1" s="197"/>
+      <c r="AP1" s="197"/>
+      <c r="AQ1" s="197"/>
+      <c r="AR1" s="197"/>
+      <c r="AS1" s="197"/>
+      <c r="AT1" s="197"/>
+      <c r="AU1" s="197"/>
+      <c r="AV1" s="197"/>
+      <c r="AW1" s="197"/>
+      <c r="AX1" s="197"/>
+      <c r="AY1" s="197"/>
+      <c r="AZ1" s="197"/>
+      <c r="BA1" s="197"/>
+      <c r="BB1" s="197"/>
+      <c r="BC1" s="197"/>
+      <c r="BD1" s="197"/>
+      <c r="BE1" s="197"/>
+      <c r="BF1" s="197"/>
+      <c r="BG1" s="197"/>
+      <c r="BH1" s="197"/>
+      <c r="BI1" s="197"/>
+      <c r="BJ1" s="197"/>
+      <c r="BK1" s="197"/>
+      <c r="BL1" s="197"/>
+      <c r="BM1" s="197"/>
+      <c r="BN1" s="197"/>
+      <c r="BO1" s="197"/>
+      <c r="BP1" s="197"/>
+      <c r="BQ1" s="197"/>
+      <c r="BR1" s="197"/>
+      <c r="BS1" s="197"/>
+      <c r="BT1" s="197"/>
+      <c r="BU1" s="197"/>
+      <c r="BV1" s="197"/>
+      <c r="BW1" s="197"/>
+      <c r="BX1" s="197"/>
+      <c r="BY1" s="197"/>
+      <c r="BZ1" s="197"/>
+      <c r="CA1" s="197"/>
+      <c r="CB1" s="197"/>
+      <c r="CC1" s="197"/>
+      <c r="CD1" s="197"/>
+      <c r="CE1" s="197"/>
+      <c r="CF1" s="197"/>
+      <c r="CG1" s="197"/>
+      <c r="CH1" s="197"/>
+      <c r="CI1" s="197"/>
+      <c r="CJ1" s="197"/>
+      <c r="CK1" s="197"/>
+      <c r="CL1" s="197"/>
+      <c r="CM1" s="197"/>
+      <c r="CN1" s="197"/>
+      <c r="CO1" s="197"/>
+      <c r="CP1" s="197"/>
+      <c r="CQ1" s="197"/>
+      <c r="CR1" s="197"/>
+      <c r="CS1" s="197"/>
+      <c r="CT1" s="197"/>
+      <c r="CU1" s="197"/>
+      <c r="CV1" s="197"/>
+      <c r="CW1" s="197"/>
+      <c r="CX1" s="197"/>
+      <c r="CY1" s="197"/>
+      <c r="CZ1" s="197"/>
+      <c r="DA1" s="197"/>
+      <c r="DB1" s="197"/>
+      <c r="DC1" s="197"/>
+      <c r="DD1" s="197"/>
+      <c r="DE1" s="197"/>
+      <c r="DF1" s="197"/>
+      <c r="DG1" s="197"/>
+      <c r="DH1" s="197"/>
+      <c r="DI1" s="197"/>
+      <c r="DJ1" s="197"/>
+      <c r="DK1" s="197"/>
       <c r="DL1" s="3"/>
     </row>
     <row r="2" spans="1:124" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -52451,334 +52460,338 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29A244D-CD3A-4D3F-BBA1-45F273F52CE5}">
   <dimension ref="A1:DG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="CO1" workbookViewId="0">
+      <selection activeCell="DC2" sqref="DC2:DC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="105" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="107" width="11.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:111" s="46" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="196">
+      <c r="B1" s="195">
         <v>42005</v>
       </c>
-      <c r="C1" s="196">
+      <c r="C1" s="195">
         <v>42036</v>
       </c>
-      <c r="D1" s="196">
+      <c r="D1" s="195">
         <v>42064</v>
       </c>
-      <c r="E1" s="196">
+      <c r="E1" s="195">
         <v>42095</v>
       </c>
-      <c r="F1" s="196">
+      <c r="F1" s="195">
         <v>42125</v>
       </c>
-      <c r="G1" s="196">
+      <c r="G1" s="195">
         <v>42156</v>
       </c>
-      <c r="H1" s="196">
+      <c r="H1" s="195">
         <v>42186</v>
       </c>
-      <c r="I1" s="196">
+      <c r="I1" s="195">
         <v>42217</v>
       </c>
-      <c r="J1" s="196">
+      <c r="J1" s="195">
         <v>42248</v>
       </c>
-      <c r="K1" s="196">
+      <c r="K1" s="195">
         <v>42278</v>
       </c>
-      <c r="L1" s="196">
+      <c r="L1" s="195">
         <v>42309</v>
       </c>
-      <c r="M1" s="196">
+      <c r="M1" s="195">
         <v>42339</v>
       </c>
-      <c r="N1" s="196">
+      <c r="N1" s="195">
         <v>42370</v>
       </c>
-      <c r="O1" s="196">
+      <c r="O1" s="195">
         <v>42401</v>
       </c>
-      <c r="P1" s="196">
+      <c r="P1" s="195">
         <v>42430</v>
       </c>
-      <c r="Q1" s="196">
+      <c r="Q1" s="195">
         <v>42461</v>
       </c>
-      <c r="R1" s="196">
+      <c r="R1" s="195">
         <v>42491</v>
       </c>
-      <c r="S1" s="196">
+      <c r="S1" s="195">
         <v>42522</v>
       </c>
-      <c r="T1" s="196">
+      <c r="T1" s="195">
         <v>42552</v>
       </c>
-      <c r="U1" s="196">
+      <c r="U1" s="195">
         <v>42583</v>
       </c>
-      <c r="V1" s="196">
+      <c r="V1" s="195">
         <v>42614</v>
       </c>
-      <c r="W1" s="196">
+      <c r="W1" s="195">
         <v>42644</v>
       </c>
-      <c r="X1" s="196">
+      <c r="X1" s="195">
         <v>42675</v>
       </c>
-      <c r="Y1" s="196">
+      <c r="Y1" s="195">
         <v>42705</v>
       </c>
-      <c r="Z1" s="196">
+      <c r="Z1" s="195">
         <v>42736</v>
       </c>
-      <c r="AA1" s="196">
+      <c r="AA1" s="195">
         <v>42767</v>
       </c>
-      <c r="AB1" s="196">
+      <c r="AB1" s="195">
         <v>42795</v>
       </c>
-      <c r="AC1" s="196">
+      <c r="AC1" s="195">
         <v>42826</v>
       </c>
-      <c r="AD1" s="196">
+      <c r="AD1" s="195">
         <v>42856</v>
       </c>
-      <c r="AE1" s="196">
+      <c r="AE1" s="195">
         <v>42887</v>
       </c>
-      <c r="AF1" s="196">
+      <c r="AF1" s="195">
         <v>42917</v>
       </c>
-      <c r="AG1" s="196">
+      <c r="AG1" s="195">
         <v>42948</v>
       </c>
-      <c r="AH1" s="196">
+      <c r="AH1" s="195">
         <v>42979</v>
       </c>
-      <c r="AI1" s="196">
+      <c r="AI1" s="195">
         <v>43009</v>
       </c>
-      <c r="AJ1" s="196">
+      <c r="AJ1" s="195">
         <v>43040</v>
       </c>
-      <c r="AK1" s="196">
+      <c r="AK1" s="195">
         <v>43070</v>
       </c>
-      <c r="AL1" s="196">
+      <c r="AL1" s="195">
         <v>43101</v>
       </c>
-      <c r="AM1" s="196">
+      <c r="AM1" s="195">
         <v>43132</v>
       </c>
-      <c r="AN1" s="196">
+      <c r="AN1" s="195">
         <v>43160</v>
       </c>
-      <c r="AO1" s="197">
+      <c r="AO1" s="196">
         <v>43191</v>
       </c>
-      <c r="AP1" s="197">
+      <c r="AP1" s="196">
         <v>43221</v>
       </c>
-      <c r="AQ1" s="197">
+      <c r="AQ1" s="196">
         <v>43252</v>
       </c>
-      <c r="AR1" s="197">
+      <c r="AR1" s="196">
         <v>43282</v>
       </c>
-      <c r="AS1" s="197">
+      <c r="AS1" s="196">
         <v>43313</v>
       </c>
-      <c r="AT1" s="197">
+      <c r="AT1" s="196">
         <v>43344</v>
       </c>
-      <c r="AU1" s="197">
+      <c r="AU1" s="196">
         <v>43374</v>
       </c>
-      <c r="AV1" s="197">
+      <c r="AV1" s="196">
         <v>43405</v>
       </c>
-      <c r="AW1" s="197">
+      <c r="AW1" s="196">
         <v>43435</v>
       </c>
-      <c r="AX1" s="197">
+      <c r="AX1" s="196">
         <v>43466</v>
       </c>
-      <c r="AY1" s="197">
+      <c r="AY1" s="196">
         <v>43497</v>
       </c>
-      <c r="AZ1" s="197">
+      <c r="AZ1" s="196">
         <v>43525</v>
       </c>
-      <c r="BA1" s="197">
+      <c r="BA1" s="196">
         <v>43556</v>
       </c>
-      <c r="BB1" s="197">
+      <c r="BB1" s="196">
         <v>43586</v>
       </c>
-      <c r="BC1" s="197">
+      <c r="BC1" s="196">
         <v>43617</v>
       </c>
-      <c r="BD1" s="197">
+      <c r="BD1" s="196">
         <v>43647</v>
       </c>
-      <c r="BE1" s="197">
+      <c r="BE1" s="196">
         <v>43678</v>
       </c>
-      <c r="BF1" s="197">
+      <c r="BF1" s="196">
         <v>43709</v>
       </c>
-      <c r="BG1" s="197">
+      <c r="BG1" s="196">
         <v>43739</v>
       </c>
-      <c r="BH1" s="197">
+      <c r="BH1" s="196">
         <v>43770</v>
       </c>
-      <c r="BI1" s="197">
+      <c r="BI1" s="196">
         <v>43800</v>
       </c>
-      <c r="BJ1" s="197">
+      <c r="BJ1" s="196">
         <v>43831</v>
       </c>
-      <c r="BK1" s="197">
+      <c r="BK1" s="196">
         <v>43862</v>
       </c>
-      <c r="BL1" s="197">
+      <c r="BL1" s="196">
         <v>43891</v>
       </c>
-      <c r="BM1" s="197">
+      <c r="BM1" s="196">
         <v>43922</v>
       </c>
-      <c r="BN1" s="197">
+      <c r="BN1" s="196">
         <v>43952</v>
       </c>
-      <c r="BO1" s="197">
+      <c r="BO1" s="196">
         <v>43983</v>
       </c>
-      <c r="BP1" s="197">
+      <c r="BP1" s="196">
         <v>44013</v>
       </c>
-      <c r="BQ1" s="197">
+      <c r="BQ1" s="196">
         <v>44044</v>
       </c>
-      <c r="BR1" s="197">
+      <c r="BR1" s="196">
         <v>44075</v>
       </c>
-      <c r="BS1" s="197">
+      <c r="BS1" s="196">
         <v>44105</v>
       </c>
-      <c r="BT1" s="197">
+      <c r="BT1" s="196">
         <v>44136</v>
       </c>
-      <c r="BU1" s="197">
+      <c r="BU1" s="196">
         <v>44166</v>
       </c>
-      <c r="BV1" s="197">
+      <c r="BV1" s="196">
         <v>44197</v>
       </c>
-      <c r="BW1" s="197">
+      <c r="BW1" s="196">
         <v>44228</v>
       </c>
-      <c r="BX1" s="197">
+      <c r="BX1" s="196">
         <v>44256</v>
       </c>
-      <c r="BY1" s="197">
+      <c r="BY1" s="196">
         <v>44287</v>
       </c>
-      <c r="BZ1" s="197">
+      <c r="BZ1" s="196">
         <v>44317</v>
       </c>
-      <c r="CA1" s="197">
+      <c r="CA1" s="196">
         <v>44348</v>
       </c>
-      <c r="CB1" s="197">
+      <c r="CB1" s="196">
         <v>44378</v>
       </c>
-      <c r="CC1" s="197">
+      <c r="CC1" s="196">
         <v>44409</v>
       </c>
-      <c r="CD1" s="197">
+      <c r="CD1" s="196">
         <v>44440</v>
       </c>
-      <c r="CE1" s="197">
+      <c r="CE1" s="196">
         <v>44470</v>
       </c>
-      <c r="CF1" s="197">
+      <c r="CF1" s="196">
         <v>44501</v>
       </c>
-      <c r="CG1" s="197">
+      <c r="CG1" s="196">
         <v>44531</v>
       </c>
-      <c r="CH1" s="197">
+      <c r="CH1" s="196">
         <v>44562</v>
       </c>
-      <c r="CI1" s="197">
+      <c r="CI1" s="196">
         <v>44593</v>
       </c>
-      <c r="CJ1" s="197">
+      <c r="CJ1" s="196">
         <v>44621</v>
       </c>
-      <c r="CK1" s="197">
+      <c r="CK1" s="196">
         <v>44652</v>
       </c>
-      <c r="CL1" s="197">
+      <c r="CL1" s="196">
         <v>44682</v>
       </c>
-      <c r="CM1" s="197">
+      <c r="CM1" s="196">
         <v>44713</v>
       </c>
-      <c r="CN1" s="197">
+      <c r="CN1" s="196">
         <v>44743</v>
       </c>
-      <c r="CO1" s="197">
+      <c r="CO1" s="196">
         <v>44774</v>
       </c>
-      <c r="CP1" s="197">
+      <c r="CP1" s="196">
         <v>44805</v>
       </c>
-      <c r="CQ1" s="197">
+      <c r="CQ1" s="196">
         <v>44835</v>
       </c>
-      <c r="CR1" s="197">
+      <c r="CR1" s="196">
         <v>44866</v>
       </c>
-      <c r="CS1" s="197">
+      <c r="CS1" s="196">
         <v>44896</v>
       </c>
-      <c r="CT1" s="197">
+      <c r="CT1" s="196">
         <v>44927</v>
       </c>
-      <c r="CU1" s="197">
+      <c r="CU1" s="196">
         <v>44958</v>
       </c>
-      <c r="CV1" s="197">
+      <c r="CV1" s="196">
         <v>44986</v>
       </c>
-      <c r="CW1" s="197">
+      <c r="CW1" s="196">
         <v>45017</v>
       </c>
-      <c r="CX1" s="197">
+      <c r="CX1" s="196">
         <v>45047</v>
       </c>
-      <c r="CY1" s="197">
+      <c r="CY1" s="196">
         <v>45078</v>
       </c>
-      <c r="CZ1" s="197">
+      <c r="CZ1" s="196">
         <v>45108</v>
       </c>
-      <c r="DA1" s="197">
+      <c r="DA1" s="196">
         <v>45139</v>
       </c>
-      <c r="DB1" s="29"/>
-      <c r="DC1" s="29"/>
+      <c r="DB1" s="200">
+        <v>45170</v>
+      </c>
+      <c r="DC1" s="200">
+        <v>45200</v>
+      </c>
       <c r="DD1" s="29"/>
       <c r="DE1" s="29"/>
       <c r="DF1" s="29"/>
@@ -53100,6 +53113,12 @@
       <c r="DA2" s="117">
         <v>14537025</v>
       </c>
+      <c r="DB2" s="198">
+        <v>13490264</v>
+      </c>
+      <c r="DC2" s="198">
+        <v>13447312</v>
+      </c>
     </row>
     <row r="3" spans="1:111" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
@@ -53417,6 +53436,12 @@
       <c r="DA3" s="117">
         <v>19501457</v>
       </c>
+      <c r="DB3" s="198">
+        <v>18379095.149999999</v>
+      </c>
+      <c r="DC3" s="198">
+        <v>19668131</v>
+      </c>
     </row>
     <row r="4" spans="1:111" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -53733,6 +53758,12 @@
       </c>
       <c r="DA4" s="140">
         <v>1793808</v>
+      </c>
+      <c r="DB4" s="199">
+        <v>1472213</v>
+      </c>
+      <c r="DC4" s="199">
+        <v>1996245</v>
       </c>
     </row>
   </sheetData>
